--- a/Modelos/Inflación - Desempleo.xlsx
+++ b/Modelos/Inflación - Desempleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\autologon\Desktop\Dinámica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B223E-381B-4355-87B1-43A1ABD68F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D2DEA-77D5-40D6-AF9A-89644F515F1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{889CC906-522B-4C43-A3F9-AB4A546D97FF}"/>
   </bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E29D434-B083-4668-89A9-B0194E067190}">
   <dimension ref="A1:JN274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,9 +2903,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>0.37</v>
-      </c>
+      <c r="A274" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modelos/Inflación - Desempleo.xlsx
+++ b/Modelos/Inflación - Desempleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\autologon\Desktop\Dinámica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D2DEA-77D5-40D6-AF9A-89644F515F1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6579D113-3ECA-45D5-8C99-6804237756F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{889CC906-522B-4C43-A3F9-AB4A546D97FF}"/>
   </bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E29D434-B083-4668-89A9-B0194E067190}">
   <dimension ref="A1:JN274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
